--- a/src/test/java/resources/excelData.xlsx
+++ b/src/test/java/resources/excelData.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\IdeaProjects\CWJUnitProjectDefault\src\test\java\tests\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nutzer\IdeaProjects\CWJunitSelenium\src\test\java\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42608E2B-0FDD-41F2-A9A2-C2F4504574A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233578E8-CE67-423E-99E2-5DCF72282C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9870" yWindow="3405" windowWidth="17040" windowHeight="10410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="910" windowWidth="17690" windowHeight="8990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="informationData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>First Name </t>
   </si>
@@ -109,7 +109,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -451,21 +450,21 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F5" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="11.0" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="3" width="14.0" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="3" width="17.7109375" collapsed="false"/>
-    <col min="4" max="4" style="3" width="9.140625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="3" width="11.7109375" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="3" width="30.140625" collapsed="false"/>
-    <col min="7" max="16384" style="3" width="9.140625" collapsed="false"/>
+    <col min="1" max="1" width="11" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="3"/>
+    <col min="5" max="5" width="11.7265625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="30.1796875" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -485,7 +484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -505,7 +504,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -525,40 +524,40 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F12" s="2" t="s">
